--- a/reports/raw-views/assets/tables/meso_category_usage_frequency_relative_agents.xlsx
+++ b/reports/raw-views/assets/tables/meso_category_usage_frequency_relative_agents.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>label</t>
+          <t>level</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -514,29 +514,29 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>vida rural, vida no campo</t>
+          <t>maternidade</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009380863039399626</v>
+        <v>0.0009380863039399625</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.002331002331002331</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007751937984496124</v>
+        <v>0.001471886959081543</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001984126984126984</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007936507936507936</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002008032128514056</v>
+        <v>0.008948545861297539</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -561,10 +561,10 @@
         <v>0.005985673633598273</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003968253968253968</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003968253968253968</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0.002158767539986263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002008032128514056</v>
+        <v>0.002237136465324385</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -607,187 +607,187 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>nacionalidade e nacionalismo</t>
+          <t>vida rural, vida no campo</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005628517823639775</v>
+        <v>0.009380863039399626</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01631701631701632</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006476302619958787</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.002237136465324385</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002008032128514056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>amizade</t>
+          <t>recreação, lazer e entretenimento</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001876172607879925</v>
+        <v>0.04690431519699812</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.0372960372960373</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002256893337258365</v>
+        <v>0.04533411833971151</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007936507936507936</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004016064257028112</v>
+        <v>0.01118568232662192</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002008032128514056</v>
+        <v>0.002237136465324385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>recreação, lazer e entretenimento</t>
+          <t>amizade</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04690431519699812</v>
+        <v>0.001876172607879925</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0372960372960373</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04533411833971151</v>
+        <v>0.002256893337258365</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01785714285714286</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003968253968253968</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01004016064257028</v>
+        <v>0.004474272930648769</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002008032128514056</v>
+        <v>0.002237136465324385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>linguagem e representação</t>
+          <t>nacionalidade e nacionalismo</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02439024390243903</v>
+        <v>0.005628517823639775</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.01631701631701632</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02355019134530468</v>
+        <v>0.006476302619958787</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003968253968253968</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0119047619047619</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.006024096385542169</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004016064257028112</v>
+        <v>0.002237136465324385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>sociedade e consumo</t>
+          <t>linguagem e representação</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02157598499061914</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01982141104896477</v>
+        <v>0.02355019134530468</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005952380952380952</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005952380952380952</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006024096385542169</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004016064257028112</v>
+        <v>0.004474272930648769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>maternidade</t>
+          <t>pessoas com deficiência</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009380863039399625</v>
+        <v>0.00375234521575985</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002331002331002331</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001471886959081543</v>
+        <v>0.0008831321754489255</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005952380952380952</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01004016064257028</v>
+        <v>0.002237136465324385</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004016064257028112</v>
+        <v>0.004474272930648769</v>
       </c>
     </row>
     <row r="12">
@@ -809,140 +809,140 @@
         <v>0.01246197625355706</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01204819277108434</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004016064257028112</v>
+        <v>0.004474272930648769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>pessoas com deficiência</t>
+          <t>tecnologia, inovação e sociedade</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00375234521575985</v>
+        <v>0.01407129455909944</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.002331002331002331</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0008831321754489255</v>
+        <v>0.01118634088901972</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003968253968253968</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.02</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002008032128514056</v>
+        <v>0.01118568232662192</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004016064257028112</v>
+        <v>0.004474272930648769</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>moradia e habitação</t>
+          <t>sociedade e consumo</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001876172607879925</v>
+        <v>0.02157598499061914</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.01165501165501166</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001766264350897851</v>
+        <v>0.01982141104896477</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02182539682539682</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01405622489959839</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="I14" t="n">
-        <v>0.006024096385542169</v>
+        <v>0.004474272930648769</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>família</t>
+          <t>moradia e habitação</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006566604127579738</v>
+        <v>0.001876172607879925</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01398601398601399</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01589637915808066</v>
+        <v>0.001766264350897851</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08134920634920635</v>
+        <v>0.02444444444444445</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01984126984126984</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006024096385542169</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006024096385542169</v>
+        <v>0.004474272930648769</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>tecnologia, inovação e sociedade</t>
+          <t>família</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01407129455909944</v>
+        <v>0.006566604127579738</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002331002331002331</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01118634088901972</v>
+        <v>0.01589637915808066</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00992063492063492</v>
+        <v>0.07555555555555556</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01984126984126984</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01204819277108434</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="I16" t="n">
-        <v>0.006024096385542169</v>
+        <v>0.006711409395973154</v>
       </c>
     </row>
     <row r="17">
@@ -964,239 +964,239 @@
         <v>0.01314885683446178</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003968253968253968</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00992063492063492</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01004016064257028</v>
+        <v>0.008948545861297539</v>
       </c>
       <c r="I17" t="n">
-        <v>0.008032128514056224</v>
+        <v>0.006711409395973154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>sonoridade e paisagem sonora</t>
+          <t>violência</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01125703564727955</v>
+        <v>0.009380863039399626</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02797202797202797</v>
+        <v>0.01165501165501166</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0137376116180944</v>
+        <v>0.009420076538121873</v>
       </c>
       <c r="F18" t="n">
-        <v>0.007936507936507936</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02008032128514056</v>
+        <v>0.004474272930648769</v>
       </c>
       <c r="I18" t="n">
-        <v>0.008032128514056224</v>
+        <v>0.006711409395973154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>violência</t>
+          <t>sonho e fantasia</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.009380863039399626</v>
+        <v>0.0009380863039399625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.009324009324009324</v>
       </c>
       <c r="E19" t="n">
-        <v>0.009420076538121873</v>
+        <v>0.002158767539986263</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00992063492063492</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006024096385542169</v>
+        <v>0.004474272930648769</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008032128514056224</v>
+        <v>0.008948545861297539</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>sonho e fantasia</t>
+          <t>sonoridade e paisagem sonora</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0009380863039399625</v>
+        <v>0.01125703564727955</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009324009324009324</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002158767539986263</v>
+        <v>0.0137376116180944</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="H20" t="n">
-        <v>0.006024096385542169</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="I20" t="n">
-        <v>0.008032128514056224</v>
+        <v>0.008948545861297539</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>mobilidade</t>
+          <t>raça e racismo</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01125703564727955</v>
+        <v>0.0009380863039399625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006993006993006993</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01000883132175449</v>
+        <v>0.002256893337258365</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02182539682539682</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01984126984126984</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01004016064257028</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01004016064257028</v>
+        <v>0.008948545861297539</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>raça e racismo</t>
+          <t>mobilidade</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0009380863039399625</v>
+        <v>0.01125703564727955</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002256893337258365</v>
+        <v>0.01000883132175449</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003968253968253968</v>
+        <v>0.02444444444444445</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.01118568232662192</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01004016064257028</v>
+        <v>0.01118568232662192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>alimentação e tratamentos tradicionais</t>
+          <t>distopia, ficção científica e futuros imaginados</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01313320825515948</v>
+        <v>0.01782363977485929</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002331002331002331</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01138259248356393</v>
+        <v>0.01187322146992444</v>
       </c>
       <c r="F23" t="n">
-        <v>0.005952380952380952</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00992063492063492</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01204819277108434</v>
+        <v>0.004474272930648769</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01405622489959839</v>
+        <v>0.01118568232662192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>distopia, ficção científica e futuros imaginados</t>
+          <t>gênero e sexualidade</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.02083333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01782363977485929</v>
+        <v>0.0225140712945591</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01187322146992444</v>
+        <v>0.03159650672161711</v>
       </c>
       <c r="F24" t="n">
-        <v>0.005952380952380952</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005952380952380952</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0.006024096385542169</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01405622489959839</v>
+        <v>0.01342281879194631</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>crises e desastres ambientais e sociais</t>
+          <t>alimentação e tratamentos tradicionais</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1206,456 +1206,456 @@
         <v>0.01313320825515948</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.002331002331002331</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008438818565400843</v>
+        <v>0.01138259248356393</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00992063492063492</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01606425702811245</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01807228915662651</v>
+        <v>0.01565995525727069</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>corpo, performance e expressão</t>
+          <t>religião, espiritualidade e cosmologias</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.006566604127579738</v>
+        <v>0.01031894934333959</v>
       </c>
       <c r="D26" t="n">
         <v>0.01631701631701632</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01530762437444804</v>
+        <v>0.01216759886174075</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003968253968253968</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00992063492063492</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04216867469879518</v>
+        <v>0.02460850111856823</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02008032128514056</v>
+        <v>0.01789709172259508</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>gênero e sexualidade</t>
+          <t>trabalho e ofício</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0225140712945591</v>
+        <v>0.02345215759849906</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02097902097902098</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03159650672161711</v>
+        <v>0.02806397801982141</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.03111111111111111</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02182539682539682</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02008032128514056</v>
+        <v>0.01789709172259508</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>religião, espiritualidade e cosmologias</t>
+          <t>biografia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01031894934333959</v>
+        <v>0.004690431519699813</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01631701631701632</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01216759886174075</v>
+        <v>0.002453144931802571</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01587301587301587</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01984126984126984</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02610441767068273</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02008032128514056</v>
+        <v>0.02013422818791946</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>trabalho e ofício</t>
+          <t>corpo, performance e expressão</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02345215759849906</v>
+        <v>0.006566604127579738</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03496503496503497</v>
+        <v>0.01631701631701632</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02806397801982141</v>
+        <v>0.01530762437444804</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03174603174603174</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03174603174603174</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01807228915662651</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02008032128514056</v>
+        <v>0.02013422818791946</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>territorialidade e colonialismo</t>
+          <t>crises e desastres ambientais e sociais</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01407129455909944</v>
+        <v>0.01313320825515948</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002331002331002331</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0.008438818565400843</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02182539682539682</v>
+        <v>0.02</v>
       </c>
       <c r="H30" t="n">
-        <v>0.008032128514056224</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02008032128514056</v>
+        <v>0.02013422818791946</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>saudade, luto ou perda</t>
+          <t>territorialidade e colonialismo</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01594746716697936</v>
+        <v>0.01407129455909944</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01165501165501166</v>
+        <v>0.002331002331002331</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01079383769993131</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="F31" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.02</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02008032128514056</v>
+        <v>0.004474272930648769</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02208835341365462</v>
+        <v>0.02013422818791946</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>direitos humanos</t>
+          <t>saudade, luto ou perda</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01031894934333959</v>
+        <v>0.01594746716697936</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002331002331002331</v>
+        <v>0.01165501165501166</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00863507015994505</v>
+        <v>0.01079383769993131</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01204819277108434</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02208835341365462</v>
+        <v>0.02237136465324385</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>memória e patrimônio</t>
+          <t>estruturas sociais e econômicas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.0625</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04127579737335835</v>
+        <v>0.0525328330206379</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02331002331002331</v>
+        <v>0.04428904428904429</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03718967716612698</v>
+        <v>0.05102541458149348</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02182539682539682</v>
+        <v>0.02888888888888889</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03413654618473896</v>
+        <v>0.03579418344519016</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.02237136465324385</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>biografia</t>
+          <t>violências e preconceitos de gênero</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004690431519699813</v>
+        <v>0.00375234521575985</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002453144931802571</v>
+        <v>0.006868805809047199</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01606425702811245</v>
+        <v>0.004474272930648769</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.02237136465324385</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>dinâmica urbana</t>
+          <t>memória e patrimônio</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C35" t="n">
-        <v>0.05722326454033771</v>
+        <v>0.04127579737335835</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04895104895104895</v>
+        <v>0.02331002331002331</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04189971543518791</v>
+        <v>0.03718967716612698</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.02444444444444445</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04563492063492063</v>
+        <v>0.03111111111111111</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02610441767068273</v>
+        <v>0.03579418344519016</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.02460850111856823</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>estruturas sociais e econômicas</t>
+          <t>direitos humanos</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0525328330206379</v>
+        <v>0.01031894934333959</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04428904428904429</v>
+        <v>0.002331002331002331</v>
       </c>
       <c r="E36" t="n">
-        <v>0.05102541458149348</v>
+        <v>0.00863507015994505</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03815261044176707</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02610441767068273</v>
+        <v>0.02460850111856823</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>cultural</t>
+          <t>dinâmica urbana</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0675422138836773</v>
+        <v>0.05722326454033771</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.04895104895104895</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06476302619958788</v>
+        <v>0.04189971543518791</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.06</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02811244979919679</v>
+        <v>0.02460850111856823</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02610441767068273</v>
+        <v>0.02684563758389262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>vida afetiva</t>
+          <t>cultural</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0625</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09568480300187618</v>
+        <v>0.0675422138836773</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1188811188811189</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="E38" t="n">
-        <v>0.09822392306937494</v>
+        <v>0.06476302619958788</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05753968253968254</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06349206349206349</v>
+        <v>0.03777777777777778</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.03131991051454139</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02610441767068273</v>
+        <v>0.029082774049217</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>solidão</t>
+          <t>vida afetiva</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0009380863039399625</v>
+        <v>0.09568480300187618</v>
       </c>
       <c r="D39" t="n">
-        <v>0.004662004662004662</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002649396526346777</v>
+        <v>0.09822392306937494</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.06444444444444444</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01204819277108434</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02610441767068273</v>
+        <v>0.029082774049217</v>
       </c>
     </row>
     <row r="40">
@@ -1677,16 +1677,16 @@
         <v>0.02983024237071926</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04563492063492063</v>
+        <v>0.05111111111111111</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0496031746031746</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0321285140562249</v>
+        <v>0.03579418344519016</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02610441767068273</v>
+        <v>0.029082774049217</v>
       </c>
     </row>
     <row r="41">
@@ -1708,47 +1708,47 @@
         <v>0.02237268177803945</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01984126984126984</v>
+        <v>0.02</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02182539682539682</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03413654618473896</v>
+        <v>0.03579418344519016</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02811244979919679</v>
+        <v>0.029082774049217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>violências e preconceitos de gênero</t>
+          <t>solidão</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00375234521575985</v>
+        <v>0.0009380863039399625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.004662004662004662</v>
       </c>
       <c r="E42" t="n">
-        <v>0.006868805809047199</v>
+        <v>0.002649396526346777</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00992063492063492</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="H42" t="n">
-        <v>0.004016064257028112</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="I42" t="n">
-        <v>0.02811244979919679</v>
+        <v>0.029082774049217</v>
       </c>
     </row>
     <row r="43">
@@ -1770,16 +1770,16 @@
         <v>0.005985673633598273</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02579365079365079</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02976190476190476</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03815261044176707</v>
+        <v>0.03803131991051454</v>
       </c>
       <c r="I43" t="n">
-        <v>0.03012048192771084</v>
+        <v>0.03131991051454139</v>
       </c>
     </row>
     <row r="44">
@@ -1801,78 +1801,78 @@
         <v>0.010499460308115</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01984126984126984</v>
+        <v>0.02</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05220883534136546</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03012048192771084</v>
+        <v>0.03131991051454139</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>política</t>
+          <t>educação e socialização</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03095684803001876</v>
+        <v>0.03377110694183865</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01864801864801865</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03728780296339908</v>
+        <v>0.03061524874889609</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03373015873015873</v>
+        <v>0.02444444444444445</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01606425702811245</v>
+        <v>0.02460850111856823</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03413654618473896</v>
+        <v>0.03355704697986577</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>educação e socialização</t>
+          <t>política</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03377110694183865</v>
+        <v>0.03095684803001876</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.01864801864801865</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03061524874889609</v>
+        <v>0.03728780296339908</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03968253968253968</v>
+        <v>0.03777777777777778</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02811244979919679</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="I46" t="n">
-        <v>0.03815261044176707</v>
+        <v>0.03579418344519016</v>
       </c>
     </row>
     <row r="47">
@@ -1894,16 +1894,16 @@
         <v>0.007850063781768227</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01984126984126984</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03373015873015873</v>
+        <v>0.03777777777777778</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.03803131991051454</v>
       </c>
       <c r="I47" t="n">
-        <v>0.04016064257028112</v>
+        <v>0.0447427293064877</v>
       </c>
     </row>
     <row r="48">
@@ -1925,16 +1925,16 @@
         <v>0.03395152585614758</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06349206349206349</v>
+        <v>0.06888888888888889</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>0.05220883534136546</v>
+        <v>0.05592841163310962</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04216867469879518</v>
+        <v>0.04697986577181208</v>
       </c>
     </row>
     <row r="49">
@@ -1956,16 +1956,16 @@
         <v>0.06829555490138357</v>
       </c>
       <c r="F49" t="n">
-        <v>0.07341269841269842</v>
+        <v>0.08</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="H49" t="n">
-        <v>0.05220883534136546</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="I49" t="n">
-        <v>0.04819277108433735</v>
+        <v>0.05369127516778523</v>
       </c>
     </row>
     <row r="50">
@@ -1987,16 +1987,16 @@
         <v>0.004023157688156216</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03373015873015873</v>
+        <v>0.02444444444444445</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01984126984126984</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="H50" t="n">
-        <v>0.05823293172690763</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05823293172690763</v>
+        <v>0.05369127516778523</v>
       </c>
     </row>
     <row r="51">
@@ -2018,16 +2018,16 @@
         <v>0.0278677264252772</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03174603174603174</v>
+        <v>0.02888888888888889</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="H51" t="n">
-        <v>0.02610441767068273</v>
+        <v>0.029082774049217</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05823293172690763</v>
+        <v>0.058165548098434</v>
       </c>
     </row>
     <row r="52">
@@ -2049,16 +2049,16 @@
         <v>0.004023157688156216</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03373015873015873</v>
+        <v>0.03777777777777778</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06827309236947791</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="I52" t="n">
-        <v>0.07429718875502007</v>
+        <v>0.0738255033557047</v>
       </c>
     </row>
   </sheetData>
